--- a/biology/Botanique/Jardins_de_William_Christie/Jardins_de_William_Christie.xlsx
+++ b/biology/Botanique/Jardins_de_William_Christie/Jardins_de_William_Christie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Jardins de William Christie sont des Jardins remarquables situés autour du logis du Bâtiment, un manoir du XVIe siècle[1] situé dans la commune de Thiré (Vendée).
+Les Jardins de William Christie sont des Jardins remarquables situés autour du logis du Bâtiment, un manoir du XVIe siècle situé dans la commune de Thiré (Vendée).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le domaine est la propriété du chef d'orchestre William Christie, qui a créé entre 1986 et 2005 un ensemble de jardins s’inspirant du mouvement Arts &amp; Crafts[2]. Ces jardins s’étendent, au-delà de la Smagne, sur la commune de Saint-Juire-Champgillon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le domaine est la propriété du chef d'orchestre William Christie, qui a créé entre 1986 et 2005 un ensemble de jardins s’inspirant du mouvement Arts &amp; Crafts. Ces jardins s’étendent, au-delà de la Smagne, sur la commune de Saint-Juire-Champgillon.
 Le logis a été inscrit monument historique par arrêté du 9 décembre 1985.
 Les « Jardins du Bâtiment », labellisés « Jardin remarquable », ont été inscrits monument historique par arrêté du 21 juin 2007.
-Depuis 2012 s'y tient un festival annuel de musique baroque, Dans les Jardins de William Christie, rassemblant des musiciens des Arts Florissants et des jeunes chanteurs[3].</t>
+Depuis 2012 s'y tient un festival annuel de musique baroque, Dans les Jardins de William Christie, rassemblant des musiciens des Arts Florissants et des jeunes chanteurs.</t>
         </is>
       </c>
     </row>
